--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STELCO\Desktop\Nesh_Automation\automationtests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STELCO\Desktop\test_demo\Automation-UI-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7329" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7329" uniqueCount="1085">
   <si>
     <t>TestCase</t>
   </si>
@@ -3313,6 +3313,9 @@
   </si>
   <si>
     <t>VerifyThatExpertCardsDesignAreSame</t>
+  </si>
+  <si>
+    <t>VerifyTopicsAreStillUnderAllThemeIfWhenChangedchannels</t>
   </si>
 </sst>
 </file>
@@ -4064,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V200"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="H204" activeCellId="1" sqref="H200 H204"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4753,7 +4756,7 @@
         <v>561</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>611</v>
+        <v>1084</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>6</v>
@@ -10813,9 +10816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC376"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F380" sqref="F380"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D378" sqref="D378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -4067,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10816,9 +10816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC376"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D378" sqref="D378"/>
+      <selection pane="bottomLeft" activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -4067,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V200"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10816,8 +10816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC376"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
